--- a/Data/Input/JiraTickets.xlsx
+++ b/Data/Input/JiraTickets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antavio\Documents\UiPath\GriffinBotFinal\Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Jira Bot ReFramework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CEBBC1-1CCF-45D3-9A22-63E3311177A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B4E3F-EBEE-43E5-A500-4B0569987C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="630" windowWidth="15660" windowHeight="10890" xr2:uid="{059C827D-B7A6-41B6-9CDE-FA816D5B5BB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{059C827D-B7A6-41B6-9CDE-FA816D5B5BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Ticket Type</t>
   </si>
@@ -58,67 +58,70 @@
     <t>Bug</t>
   </si>
   <si>
-    <t>Steve Ndeke</t>
-  </si>
-  <si>
-    <t>John Gunia</t>
-  </si>
-  <si>
-    <t>Penina Waithaka</t>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Junior Erick Otieno</t>
   </si>
   <si>
     <t>Anthony Njuguna</t>
   </si>
   <si>
-    <t>Must Have</t>
-  </si>
-  <si>
-    <t>Could Have</t>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Story test One</t>
+  </si>
+  <si>
+    <t>Sample Story Ticket</t>
+  </si>
+  <si>
+    <t>Task Test One</t>
+  </si>
+  <si>
+    <t>Sample Task ticket</t>
+  </si>
+  <si>
+    <t>Register button not working</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>No Bug summary</t>
+  </si>
+  <si>
+    <t>Client Walk through feature</t>
+  </si>
+  <si>
+    <t>Create a walkthrough pop up to guide new clients</t>
+  </si>
+  <si>
+    <t>Pesh Kirigo</t>
+  </si>
+  <si>
+    <t>Dark theme</t>
+  </si>
+  <si>
+    <t>Include dark theme for the site</t>
   </si>
   <si>
     <t>Should Have</t>
   </si>
   <si>
-    <t>Trivial</t>
-  </si>
-  <si>
-    <t>Bug Summary A</t>
-  </si>
-  <si>
-    <t>Ensure Website is responsive on different devices</t>
-  </si>
-  <si>
-    <t>Add a forgot password Feature</t>
-  </si>
-  <si>
-    <t>Registration of new users failing</t>
-  </si>
-  <si>
-    <t>Add favorites feature for the various projects</t>
-  </si>
-  <si>
-    <t>Niva Nancy</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Enable admin to create, deactivate and delete ex-employees</t>
-  </si>
-  <si>
-    <t>Website Responsiveness</t>
-  </si>
-  <si>
-    <t>Omondi Mercy</t>
-  </si>
-  <si>
-    <t>Bug Summary B</t>
-  </si>
-  <si>
-    <t>Story Summary B</t>
-  </si>
-  <si>
-    <t>High</t>
+    <t>Include Remember Me checkbox</t>
+  </si>
+  <si>
+    <t>Include remember me checkbox to allow customers to be automatically logged in during subsequent logins</t>
+  </si>
+  <si>
+    <t>Would Like</t>
   </si>
 </sst>
 </file>
@@ -168,9 +171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -486,22 +492,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C6BEAB-1D18-424D-B249-BDFAF402FBBC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,100 +524,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>